--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3917.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3917.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.390004113023752</v>
+        <v>1.960561752319336</v>
       </c>
       <c r="B1">
-        <v>1.780202166835523</v>
+        <v>1.947490215301514</v>
       </c>
       <c r="C1">
-        <v>2.668213636111832</v>
+        <v>2.362796306610107</v>
       </c>
       <c r="D1">
-        <v>7.718449221313105</v>
+        <v>2.36708402633667</v>
       </c>
       <c r="E1">
-        <v>2.506039384811859</v>
+        <v>1.815576672554016</v>
       </c>
     </row>
   </sheetData>
